--- a/PS6/Q5.xlsx
+++ b/PS6/Q5.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vmao/Desktop/CS124/PS6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{001D6B87-B17A-884F-93D6-302FD3A0720B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B48EF-A6FF-5D43-84E0-D0CF3C7C6B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{5ADEEC57-9F97-C048-998A-AB026D4791E2}"/>
+    <workbookView xWindow="120" yWindow="480" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{5ADEEC57-9F97-C048-998A-AB026D4791E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feasibility Report 1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$A$19:$E$19</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$A$36:$C$36</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$B$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$C$19</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1!$D$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Sheet1!$E$19</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Sheet1!$F$22</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Sheet1!$F$23</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Sheet1!$F$24</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$B$36</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$C$36</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1!$F$38</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Sheet1!$F$39</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Sheet1!$F$40</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Sheet1!$F$25</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Sheet1!$F$26</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">Sheet1!$F$25</definedName>
     <definedName name="solver_lhs9" localSheetId="1" hidden="1">Sheet1!$F$26</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
@@ -38,26 +38,26 @@
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">9</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$A$31</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$A$42</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">Sheet1!$H$225</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">Sheet1!$H$6</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs9" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -67,12 +67,11 @@
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t xml:space="preserve">Objective </t>
   </si>
@@ -171,6 +170,9 @@
   </si>
   <si>
     <t>$C$2&gt;=0</t>
+  </si>
+  <si>
+    <t>Objective</t>
   </si>
 </sst>
 </file>
@@ -701,10 +703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE66837-A329-EC41-B1D7-5E01571C92CC}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -980,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F26" si="0">SUM($A$19*A23,$B$19*B23,$C$19*C23,$D$19*D23, $E$19*E23)</f>
+        <f t="shared" ref="F23:F25" si="0">SUM($A$19*A23,$B$19*B23,$C$19*C23,$D$19*D23, $E$19*E23)</f>
         <v>1.1102230246251565E-16</v>
       </c>
       <c r="G23" t="s">
@@ -1082,6 +1084,107 @@
         <v>-0.3842195540308746</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0.25</v>
+      </c>
+      <c r="C36">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>-2</v>
+      </c>
+      <c r="F38">
+        <f>SUM($A$36*C38,$B$36*D38, $C$36*E38)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>-12</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <f>SUM(,$A$36*C39,$B$36*D39, $C$36*E39)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>SUM(B$36*D40, $C$36*E40)</f>
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <f>A36</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
